--- a/src/test/resources/TestData/BatchTestsData.xlsx
+++ b/src/test/resources/TestData/BatchTestsData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Keertana SDET Course\workspace\Team1_APIPros_RestAssured\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1DBDCBC-355B-4A8D-A520-32D4AB0D73DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908B18EE-8870-4D0F-BB5D-FF83DB639AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-2325" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <r>
       <rPr>
@@ -114,9 +114,6 @@
     <t>programId</t>
   </si>
   <si>
-    <t>API56791</t>
-  </si>
-  <si>
     <t>batchId</t>
   </si>
   <si>
@@ -126,16 +123,22 @@
     <t>numpyninja@gmail.com</t>
   </si>
   <si>
-    <t>apirestassured</t>
-  </si>
-  <si>
-    <t>hdasjdas</t>
-  </si>
-  <si>
-    <t>dsadssd</t>
-  </si>
-  <si>
     <t>dhjasdas</t>
+  </si>
+  <si>
+    <t>first batch</t>
+  </si>
+  <si>
+    <t>new batch created successfully</t>
+  </si>
+  <si>
+    <t>sdgsdg</t>
+  </si>
+  <si>
+    <t>update new batch success</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
 </sst>
 </file>
@@ -1773,7 +1776,7 @@
   <dimension ref="A1:IV2"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C3" sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13.95" customHeight="1"/>
@@ -1796,7 +1799,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1817,7 +1820,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1846,12 +1849,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" ht="39.6">
       <c r="A2" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="20">
         <v>1</v>
@@ -1873,7 +1876,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1892,9 +1895,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="26.4">
+    <row r="2" spans="1:4">
       <c r="A2" s="21" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B2" s="22">
         <v>1</v>
@@ -1916,7 +1919,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1941,18 +1944,18 @@
         <v>9</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="26.4">
+    <row r="2" spans="1:7" ht="52.8">
       <c r="A2" s="23" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="23">
-        <v>10</v>
+        <v>19</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>10</v>
@@ -1961,7 +1964,7 @@
         <v>16220</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2" s="23">
         <v>8647</v>
